--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_15_21.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_15_21.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>772510.2128504984</v>
+        <v>852502.9417674396</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12443012.75936921</v>
+        <v>12383593.4843585</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5564538.631857702</v>
+        <v>5739665.974240763</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9615280.382279286</v>
+        <v>9544182.465751832</v>
       </c>
     </row>
     <row r="11">
@@ -662,10 +664,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -674,10 +676,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,19 +712,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>120.4289982380047</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>208.2474868886323</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -756,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923704908</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -817,25 +819,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>62.08987228292609</v>
       </c>
       <c r="S4" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>105.5027752869399</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -908,10 +910,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>208.2474868886328</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -953,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>265.6368758686158</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1072,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>194.6624603617375</v>
@@ -1117,10 +1119,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>122.6942204073862</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>103.3387326418228</v>
       </c>
     </row>
     <row r="8">
@@ -1130,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>349.4323201714346</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1190,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>201.6622187863186</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1224,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734089393</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T9" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U9" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1303,13 +1305,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>74.75769145492337</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>131.4423796242382</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1354,10 +1356,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>374.5227255358578</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>184.644893949213</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1385,10 +1387,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,7 +1423,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1433,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1464,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>163.6898441249708</v>
+        <v>131.7942461569944</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1585,16 +1587,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1607,25 +1609,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>127.6501362820659</v>
       </c>
       <c r="G14" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1661,7 +1663,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1673,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>353.8646792139982</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1731,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1774,7 +1776,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>62.09581973348946</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.0258082590282</v>
@@ -1810,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1825,10 +1827,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>150.2062474346973</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1847,22 +1849,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>105.002386336094</v>
+        <v>51.47785630779886</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1895,10 +1897,10 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1941,7 +1943,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T18" t="n">
         <v>190.7165703189231</v>
@@ -2017,7 +2019,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>224.7562560951392</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2065,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>150.1158549703649</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2087,19 +2089,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>126.7498226612777</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>238.6591887249599</v>
       </c>
     </row>
     <row r="21">
@@ -2205,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2245,13 +2247,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>119.05257541788</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2296,10 +2298,10 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>104.2590660175767</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2318,25 +2320,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>288.3790914196257</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2375,7 +2377,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>229.7965692041379</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2384,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2415,7 +2417,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247721</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2476,7 +2478,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>50.36860283745263</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2494,7 +2496,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2527,13 +2529,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2542,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>12.06289619632192</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2552,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2561,13 +2563,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>85.17289288835127</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2603,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
-        <v>202.0105976495729</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2618,7 +2620,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2725,13 +2727,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>47.41254713315973</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2767,13 +2769,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>71.67037196991727</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2798,16 +2800,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>58.92805047992017</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,19 +2842,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>28.93382893562043</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2889,7 +2891,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.8172186824772</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2956,19 +2958,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,25 +2997,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>84.8242046379285</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>142.6955872305736</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3029,10 +3031,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>244.2230125550545</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3041,10 +3043,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3086,7 +3088,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>120.6088074159619</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3187,25 +3189,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,22 +3237,22 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>173.626889274476</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>19.58945082857547</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3266,16 +3268,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>261.8173103786155</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>308.9203564757131</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3314,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3433,16 +3435,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3478,13 +3480,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>217.0914199928484</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>114.2656173771021</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3500,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>78.78083674901981</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3509,7 +3511,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>213.8614881801116</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3551,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3658,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -3709,25 +3711,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>114.2656173771021</v>
+        <v>106.5867442799596</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3752,10 +3754,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>188.605944229152</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3797,13 +3799,13 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>120.6088074159623</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3895,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>14.04646546629416</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3910,13 +3912,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3958,10 +3960,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>15.63807347850683</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3989,10 +3991,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>168.1158122680962</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>14.93663403485209</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4074,7 +4076,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247723</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4144,16 +4146,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>131.6653792309046</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,25 +4182,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>84.05585837679016</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1575.249159503017</v>
+        <v>1201.628001464564</v>
       </c>
       <c r="C2" t="n">
-        <v>1206.286642562605</v>
+        <v>832.6654845241519</v>
       </c>
       <c r="D2" t="n">
-        <v>848.0209439558548</v>
+        <v>832.6654845241519</v>
       </c>
       <c r="E2" t="n">
-        <v>462.2326913576106</v>
+        <v>832.6654845241519</v>
       </c>
       <c r="F2" t="n">
-        <v>51.2467865680031</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="G2" t="n">
-        <v>51.2467865680031</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362815</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816079</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872917</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740839</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764996</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723849</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2353.593687005979</v>
       </c>
       <c r="U2" t="n">
-        <v>2562.339328400155</v>
+        <v>2100.012626270158</v>
       </c>
       <c r="V2" t="n">
-        <v>2562.339328400155</v>
+        <v>1978.367173504497</v>
       </c>
       <c r="W2" t="n">
-        <v>2562.339328400155</v>
+        <v>1978.367173504497</v>
       </c>
       <c r="X2" t="n">
-        <v>2351.988331542951</v>
+        <v>1978.367173504497</v>
       </c>
       <c r="Y2" t="n">
-        <v>1961.848999567139</v>
+        <v>1588.227841528685</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966375</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155105</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542593</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.6792471488038</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756888</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182522</v>
+        <v>165.4432786182509</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057915</v>
+        <v>71.67401812057791</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J3" t="n">
         <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>507.2413987429755</v>
+        <v>298.3188265310612</v>
       </c>
       <c r="L3" t="n">
-        <v>801.9449557744472</v>
+        <v>932.4978103100993</v>
       </c>
       <c r="M3" t="n">
-        <v>1165.206974733667</v>
+        <v>1295.759829269319</v>
       </c>
       <c r="N3" t="n">
-        <v>1552.492103330613</v>
+        <v>1683.044957866265</v>
       </c>
       <c r="O3" t="n">
-        <v>1884.562538506774</v>
+        <v>2175.502629736638</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2422.685363568935</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676481</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="S3" t="n">
-        <v>2426.617474780096</v>
+        <v>2426.617474780095</v>
       </c>
       <c r="T3" t="n">
-        <v>2232.610846175226</v>
+        <v>2232.610846175225</v>
       </c>
       <c r="U3" t="n">
         <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
-        <v>1769.368633815395</v>
+        <v>1769.368633815394</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087192</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881659</v>
       </c>
       <c r="Y3" t="n">
-        <v>1099.519478116707</v>
+        <v>1099.519478116706</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>51.2467865680031</v>
+        <v>2013.576367813028</v>
       </c>
       <c r="C4" t="n">
-        <v>51.2467865680031</v>
+        <v>1844.640184885121</v>
       </c>
       <c r="D4" t="n">
-        <v>51.2467865680031</v>
+        <v>1694.523545472786</v>
       </c>
       <c r="E4" t="n">
-        <v>51.2467865680031</v>
+        <v>1546.610451890393</v>
       </c>
       <c r="F4" t="n">
-        <v>51.2467865680031</v>
+        <v>1399.720504392482</v>
       </c>
       <c r="G4" t="n">
-        <v>51.2467865680031</v>
+        <v>1231.734039700761</v>
       </c>
       <c r="H4" t="n">
-        <v>51.2467865680031</v>
+        <v>1082.995141564267</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>977.1399948936604</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312196</v>
+        <v>1002.609167878779</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>1174.299679627705</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>1449.530858294981</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>1750.112669035316</v>
       </c>
       <c r="N4" t="n">
-        <v>1123.088724245823</v>
+        <v>2048.98193257148</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>2309.019775324692</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>2508.006390496681</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>2499.622285690128</v>
       </c>
       <c r="S4" t="n">
-        <v>1439.817372234358</v>
+        <v>2302.993537849989</v>
       </c>
       <c r="T4" t="n">
-        <v>1333.24891234856</v>
+        <v>2302.993537849989</v>
       </c>
       <c r="U4" t="n">
-        <v>1044.130574852398</v>
+        <v>2302.993537849989</v>
       </c>
       <c r="V4" t="n">
-        <v>789.4460866465112</v>
+        <v>2302.993537849989</v>
       </c>
       <c r="W4" t="n">
-        <v>500.0289166095505</v>
+        <v>2013.576367813028</v>
       </c>
       <c r="X4" t="n">
-        <v>272.0393657115332</v>
+        <v>2013.576367813028</v>
       </c>
       <c r="Y4" t="n">
-        <v>51.2467865680031</v>
+        <v>2013.576367813028</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1567.784838233996</v>
+        <v>1785.600156360222</v>
       </c>
       <c r="C5" t="n">
-        <v>1567.784838233996</v>
+        <v>1416.63763941981</v>
       </c>
       <c r="D5" t="n">
-        <v>1567.784838233996</v>
+        <v>1058.37194081306</v>
       </c>
       <c r="E5" t="n">
-        <v>1181.996585635751</v>
+        <v>672.5836882148155</v>
       </c>
       <c r="F5" t="n">
-        <v>771.0106808461439</v>
+        <v>261.597783425208</v>
       </c>
       <c r="G5" t="n">
-        <v>355.3059305704328</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H5" t="n">
         <v>51.24678656800311</v>
@@ -4565,13 +4567,13 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4601,16 +4603,16 @@
         <v>2562.339328400155</v>
       </c>
       <c r="V5" t="n">
-        <v>2294.01925176519</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W5" t="n">
-        <v>1941.250596495076</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="X5" t="n">
-        <v>1567.784838233996</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="Y5" t="n">
-        <v>1567.784838233996</v>
+        <v>2172.199996424344</v>
       </c>
     </row>
     <row r="6">
@@ -4620,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F6" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G6" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057915</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500114</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>507.2413987429759</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L6" t="n">
-        <v>801.9449557744476</v>
+        <v>932.4978103100998</v>
       </c>
       <c r="M6" t="n">
-        <v>1165.206974733668</v>
+        <v>1456.147065963532</v>
       </c>
       <c r="N6" t="n">
-        <v>1552.492103330613</v>
+        <v>1843.432194560478</v>
       </c>
       <c r="O6" t="n">
-        <v>1884.562538506775</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4677,16 +4679,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="C7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="D7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1337.233965749941</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T7" t="n">
-        <v>1114.255484944676</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U7" t="n">
-        <v>825.137147448514</v>
+        <v>927.7205539329314</v>
       </c>
       <c r="V7" t="n">
-        <v>570.4526592426272</v>
+        <v>673.0360657270445</v>
       </c>
       <c r="W7" t="n">
-        <v>281.0354892056666</v>
+        <v>383.6188956900839</v>
       </c>
       <c r="X7" t="n">
-        <v>157.1019332386098</v>
+        <v>155.6293447920665</v>
       </c>
       <c r="Y7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2345.167438673965</v>
+        <v>1505.04202752539</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1505.04202752539</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1505.04202752539</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>1119.253774927146</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>708.2678701375385</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810551</v>
+        <v>442.517185281608</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>795.7553530872912</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.60582160917</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.60582160917</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.60582160917</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V8" t="n">
-        <v>3325.60582160917</v>
+        <v>2231.276441056584</v>
       </c>
       <c r="W8" t="n">
-        <v>3325.60582160917</v>
+        <v>1878.50778578647</v>
       </c>
       <c r="X8" t="n">
-        <v>3121.906610713899</v>
+        <v>1505.04202752539</v>
       </c>
       <c r="Y8" t="n">
-        <v>2731.767278738087</v>
+        <v>1505.04202752539</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031478</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>956.284402521753</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1343.569531118698</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>1675.63996629486</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.41198488674</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.05354253334</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>142.0249360836212</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="C10" t="n">
-        <v>142.0249360836212</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="D10" t="n">
-        <v>142.0249360836212</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="E10" t="n">
-        <v>142.0249360836212</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="F10" t="n">
-        <v>142.0249360836212</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G10" t="n">
-        <v>142.0249360836212</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H10" t="n">
-        <v>142.0249360836212</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760404</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.46409084602</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1307.047291805835</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.908724368016</v>
+        <v>1017.928954309672</v>
       </c>
       <c r="V10" t="n">
-        <v>880.2242361621292</v>
+        <v>763.2444661037855</v>
       </c>
       <c r="W10" t="n">
-        <v>590.8070661251686</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="X10" t="n">
-        <v>362.8175152271513</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="Y10" t="n">
-        <v>142.0249360836212</v>
+        <v>473.8272960668249</v>
       </c>
     </row>
     <row r="11">
@@ -5015,43 +5017,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1619.798686923957</v>
+        <v>1418.660964416652</v>
       </c>
       <c r="C11" t="n">
-        <v>1250.836169983545</v>
+        <v>1418.660964416652</v>
       </c>
       <c r="D11" t="n">
-        <v>892.5704713767946</v>
+        <v>1418.660964416652</v>
       </c>
       <c r="E11" t="n">
-        <v>892.5704713767946</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F11" t="n">
-        <v>481.5845665871869</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G11" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
         <v>2623.528026939508</v>
@@ -5069,22 +5071,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T11" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U11" t="n">
-        <v>3072.075344883007</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V11" t="n">
-        <v>2741.012457539436</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W11" t="n">
-        <v>2388.243802269322</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X11" t="n">
-        <v>2388.243802269322</v>
+        <v>1808.800296392464</v>
       </c>
       <c r="Y11" t="n">
-        <v>1998.10447029351</v>
+        <v>1418.660964416652</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I12" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L12" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X12" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="13">
@@ -5173,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>66.51211643218342</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C13" t="n">
-        <v>66.51211643218342</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D13" t="n">
-        <v>66.51211643218342</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E13" t="n">
-        <v>66.51211643218342</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F13" t="n">
-        <v>66.51211643218342</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G13" t="n">
-        <v>66.51211643218342</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I13" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L13" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N13" t="n">
         <v>1317.747152581905</v>
@@ -5218,10 +5220,10 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q13" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R13" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S13" t="n">
         <v>1735.608663915319</v>
@@ -5230,19 +5232,19 @@
         <v>1513.842048484845</v>
       </c>
       <c r="U13" t="n">
-        <v>1224.739181610488</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V13" t="n">
-        <v>970.0546934046014</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="W13" t="n">
-        <v>680.6375233676408</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="X13" t="n">
-        <v>452.6479724696235</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="Y13" t="n">
-        <v>231.8553933260934</v>
+        <v>1224.739181610489</v>
       </c>
     </row>
     <row r="14">
@@ -5252,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1594.601034732593</v>
+        <v>1308.370295943748</v>
       </c>
       <c r="C14" t="n">
-        <v>1225.638517792182</v>
+        <v>1308.370295943748</v>
       </c>
       <c r="D14" t="n">
-        <v>867.3728191854311</v>
+        <v>950.1045973369974</v>
       </c>
       <c r="E14" t="n">
-        <v>481.5845665871869</v>
+        <v>950.1045973369974</v>
       </c>
       <c r="F14" t="n">
-        <v>481.5845665871869</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G14" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I14" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K14" t="n">
         <v>589.2106210810553</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
         <v>1573.776739001389</v>
@@ -5309,19 +5311,19 @@
         <v>3009.337405520488</v>
       </c>
       <c r="U14" t="n">
-        <v>3009.337405520488</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V14" t="n">
-        <v>2678.274518176917</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W14" t="n">
-        <v>2325.505862906803</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X14" t="n">
-        <v>1952.040104645723</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y14" t="n">
-        <v>1594.601034732593</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="15">
@@ -5331,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D15" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
         <v>66.51211643218342</v>
@@ -5361,7 +5363,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5388,7 +5390,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
         <v>1779.608347199865</v>
@@ -5397,10 +5399,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="16">
@@ -5410,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1007.446783179745</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C16" t="n">
-        <v>838.5106002518381</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D16" t="n">
-        <v>688.3939608395024</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E16" t="n">
-        <v>540.4808672571093</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F16" t="n">
         <v>477.7578170212613</v>
@@ -5458,28 +5460,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R16" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S16" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T16" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U16" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="V16" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="W16" t="n">
-        <v>1637.877378051532</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="X16" t="n">
-        <v>1409.887827153515</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y16" t="n">
-        <v>1189.095248009985</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1285.591601078695</v>
+        <v>1238.038871968309</v>
       </c>
       <c r="C17" t="n">
-        <v>916.6290841382831</v>
+        <v>869.0763550278973</v>
       </c>
       <c r="D17" t="n">
-        <v>558.3633855315327</v>
+        <v>869.0763550278973</v>
       </c>
       <c r="E17" t="n">
-        <v>172.5751329332884</v>
+        <v>869.0763550278973</v>
       </c>
       <c r="F17" t="n">
-        <v>172.5751329332884</v>
+        <v>458.0904502382897</v>
       </c>
       <c r="G17" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I17" t="n">
         <v>66.51211643218342</v>
@@ -5516,7 +5518,7 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329464</v>
@@ -5543,22 +5545,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T17" t="n">
-        <v>3119.628073993393</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U17" t="n">
-        <v>3119.628073993393</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V17" t="n">
-        <v>2788.565186649822</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="W17" t="n">
-        <v>2435.796531379708</v>
+        <v>2388.243802269322</v>
       </c>
       <c r="X17" t="n">
-        <v>2062.330773118628</v>
+        <v>2014.778044008242</v>
       </c>
       <c r="Y17" t="n">
-        <v>1672.191441142817</v>
+        <v>1624.638712032431</v>
       </c>
     </row>
     <row r="18">
@@ -5592,13 +5594,13 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>994.2880032601528</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C19" t="n">
-        <v>825.3518203322459</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D19" t="n">
-        <v>675.2351809199101</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E19" t="n">
-        <v>527.322087337517</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F19" t="n">
-        <v>380.4321398396066</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G19" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H19" t="n">
         <v>66.51211643218342</v>
@@ -5674,16 +5676,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L19" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N19" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O19" t="n">
         <v>1617.076751502319</v>
@@ -5695,28 +5697,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R19" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S19" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T19" t="n">
-        <v>1837.464090846021</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U19" t="n">
-        <v>1548.361223971665</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="V19" t="n">
-        <v>1548.361223971665</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="W19" t="n">
-        <v>1548.361223971665</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X19" t="n">
-        <v>1396.729047233923</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y19" t="n">
-        <v>1175.936468090393</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>921.7704558796261</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C20" t="n">
-        <v>552.8079389392144</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D20" t="n">
-        <v>194.5422403324639</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E20" t="n">
-        <v>66.51211643218342</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F20" t="n">
-        <v>66.51211643218342</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G20" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I20" t="n">
         <v>66.51211643218342</v>
@@ -5753,7 +5755,7 @@
         <v>255.3912473912092</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329465</v>
@@ -5762,7 +5764,7 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O20" t="n">
         <v>2623.528026939508</v>
@@ -5777,25 +5779,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T20" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U20" t="n">
-        <v>2755.806928794324</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V20" t="n">
-        <v>2424.744041450754</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W20" t="n">
-        <v>2071.975386180639</v>
+        <v>2972.837166339057</v>
       </c>
       <c r="X20" t="n">
-        <v>1698.50962791956</v>
+        <v>2972.837166339057</v>
       </c>
       <c r="Y20" t="n">
-        <v>1308.370295943748</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="21">
@@ -5832,10 +5834,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>820.4128495803448</v>
+        <v>2078.679253373407</v>
       </c>
       <c r="C22" t="n">
-        <v>651.4766666524379</v>
+        <v>1909.743070445501</v>
       </c>
       <c r="D22" t="n">
-        <v>501.3600272401021</v>
+        <v>1759.626431033165</v>
       </c>
       <c r="E22" t="n">
-        <v>381.1049005553748</v>
+        <v>1611.713337450772</v>
       </c>
       <c r="F22" t="n">
-        <v>234.2149530574645</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="G22" t="n">
-        <v>66.51211643218342</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="H22" t="n">
-        <v>66.51211643218342</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218342</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="J22" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399797</v>
       </c>
       <c r="K22" t="n">
-        <v>315.6219318279954</v>
+        <v>1713.933205348673</v>
       </c>
       <c r="L22" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.49300379717</v>
       </c>
       <c r="M22" t="n">
-        <v>976.3387758760405</v>
+        <v>2374.650049396719</v>
       </c>
       <c r="N22" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102583</v>
       </c>
       <c r="O22" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022997</v>
       </c>
       <c r="P22" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456656</v>
       </c>
       <c r="Q22" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R22" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S22" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T22" t="n">
-        <v>1705.527932658019</v>
+        <v>3103.839206178697</v>
       </c>
       <c r="U22" t="n">
-        <v>1705.527932658019</v>
+        <v>3103.839206178697</v>
       </c>
       <c r="V22" t="n">
-        <v>1450.843444452132</v>
+        <v>2998.527018282155</v>
       </c>
       <c r="W22" t="n">
-        <v>1450.843444452132</v>
+        <v>2709.109848245194</v>
       </c>
       <c r="X22" t="n">
-        <v>1222.853893554115</v>
+        <v>2481.120297347177</v>
       </c>
       <c r="Y22" t="n">
-        <v>1002.061314410584</v>
+        <v>2260.327718203647</v>
       </c>
     </row>
     <row r="23">
@@ -5963,31 +5965,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1590.514489367197</v>
+        <v>1881.708680670284</v>
       </c>
       <c r="C23" t="n">
-        <v>1221.551972426786</v>
+        <v>1881.708680670284</v>
       </c>
       <c r="D23" t="n">
-        <v>863.2862738200351</v>
+        <v>1523.442982063534</v>
       </c>
       <c r="E23" t="n">
-        <v>477.498021221791</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F23" t="n">
-        <v>66.51211643218342</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G23" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H23" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I23" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K23" t="n">
         <v>589.2106210810553</v>
@@ -6023,16 +6025,16 @@
         <v>3325.605821609171</v>
       </c>
       <c r="V23" t="n">
-        <v>3093.488074938325</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="W23" t="n">
-        <v>2740.71941966821</v>
+        <v>2641.774278995486</v>
       </c>
       <c r="X23" t="n">
-        <v>2367.25366140713</v>
+        <v>2268.308520734406</v>
       </c>
       <c r="Y23" t="n">
-        <v>1977.114329431319</v>
+        <v>2268.308520734406</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C24" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D24" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E24" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F24" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G24" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I24" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J24" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K24" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L24" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M24" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N24" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O24" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P24" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q24" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R24" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S24" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T24" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U24" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V24" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W24" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X24" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y24" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="25">
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>994.2880032601528</v>
+        <v>973.5548741173881</v>
       </c>
       <c r="C25" t="n">
-        <v>825.3518203322459</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D25" t="n">
-        <v>675.2351809199101</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E25" t="n">
-        <v>527.322087337517</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F25" t="n">
-        <v>380.4321398396066</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G25" t="n">
-        <v>212.7293032143256</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H25" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I25" t="n">
         <v>66.51211643218342</v>
@@ -6175,22 +6177,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T25" t="n">
-        <v>1705.527932658019</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U25" t="n">
-        <v>1705.527932658019</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V25" t="n">
-        <v>1705.527932658019</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W25" t="n">
-        <v>1416.110762621058</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X25" t="n">
-        <v>1188.121211723041</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y25" t="n">
-        <v>1175.936468090393</v>
+        <v>1155.203338947628</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2047.583838282732</v>
+        <v>921.7704558796256</v>
       </c>
       <c r="C26" t="n">
-        <v>1678.62132134232</v>
+        <v>552.807938939214</v>
       </c>
       <c r="D26" t="n">
-        <v>1320.35562273557</v>
+        <v>194.5422403324635</v>
       </c>
       <c r="E26" t="n">
-        <v>934.5673701373257</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="F26" t="n">
-        <v>523.5814653477182</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G26" t="n">
         <v>108.5090151927147</v>
@@ -6221,55 +6223,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I26" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L26" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M26" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N26" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O26" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P26" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q26" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R26" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S26" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T26" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U26" t="n">
-        <v>3121.554712872229</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V26" t="n">
-        <v>2790.491825528658</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W26" t="n">
-        <v>2437.723170258544</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X26" t="n">
-        <v>2437.723170258544</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y26" t="n">
-        <v>2047.583838282732</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="27">
@@ -6279,37 +6281,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C27" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D27" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E27" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F27" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G27" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I27" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J27" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K27" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L27" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M27" t="n">
         <v>1212.428070438129</v>
@@ -6336,7 +6338,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U27" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V27" t="n">
         <v>1779.608347199865</v>
@@ -6345,10 +6347,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X27" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y27" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2440.490738531498</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C28" t="n">
-        <v>2271.554555603591</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D28" t="n">
-        <v>2121.437916191255</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E28" t="n">
-        <v>1973.524822608862</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F28" t="n">
-        <v>1826.634875110952</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G28" t="n">
-        <v>1658.932038485671</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H28" t="n">
-        <v>1512.714851703528</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I28" t="n">
-        <v>1464.823389952862</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J28" t="n">
-        <v>1509.946022399798</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K28" t="n">
-        <v>1713.933205348674</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L28" t="n">
-        <v>2030.49300379717</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M28" t="n">
-        <v>2374.650049396719</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N28" t="n">
-        <v>2716.058426102584</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O28" t="n">
-        <v>3015.388025022997</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P28" t="n">
-        <v>3247.995525456657</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q28" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R28" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S28" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T28" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U28" t="n">
-        <v>3325.605821609171</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="V28" t="n">
-        <v>3070.921333403285</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="W28" t="n">
-        <v>3070.921333403285</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X28" t="n">
-        <v>2842.931782505268</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y28" t="n">
-        <v>2622.139203361738</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1208.812782134349</v>
+        <v>2065.110222835252</v>
       </c>
       <c r="C29" t="n">
-        <v>839.8502651939375</v>
+        <v>1696.14770589484</v>
       </c>
       <c r="D29" t="n">
-        <v>481.5845665871869</v>
+        <v>1337.882007288089</v>
       </c>
       <c r="E29" t="n">
-        <v>481.5845665871869</v>
+        <v>952.0937546898451</v>
       </c>
       <c r="F29" t="n">
-        <v>481.5845665871869</v>
+        <v>541.1078499002376</v>
       </c>
       <c r="G29" t="n">
-        <v>66.51211643218343</v>
+        <v>126.0353997452341</v>
       </c>
       <c r="H29" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I29" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L29" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M29" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N29" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O29" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P29" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q29" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R29" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S29" t="n">
-        <v>3296.379731775211</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T29" t="n">
-        <v>3296.379731775211</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U29" t="n">
-        <v>3042.849255049048</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V29" t="n">
-        <v>2711.786367705477</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="W29" t="n">
-        <v>2359.017712435363</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="X29" t="n">
-        <v>1985.551954174283</v>
+        <v>2841.849394875185</v>
       </c>
       <c r="Y29" t="n">
-        <v>1595.412622198471</v>
+        <v>2451.710062899373</v>
       </c>
     </row>
     <row r="30">
@@ -6516,31 +6518,31 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C30" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D30" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E30" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F30" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G30" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I30" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J30" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K30" t="n">
         <v>398.4535849031479</v>
@@ -6573,7 +6575,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U30" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V30" t="n">
         <v>1779.608347199865</v>
@@ -6582,10 +6584,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X30" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y30" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="31">
@@ -6595,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1091.613680441807</v>
+        <v>385.564938772426</v>
       </c>
       <c r="C31" t="n">
-        <v>922.6774975139006</v>
+        <v>216.6287558445191</v>
       </c>
       <c r="D31" t="n">
-        <v>772.5608581015648</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E31" t="n">
-        <v>624.6477645191717</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F31" t="n">
-        <v>477.7578170212613</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G31" t="n">
-        <v>310.0549803959803</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H31" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I31" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J31" t="n">
         <v>111.634748879119</v>
@@ -6643,28 +6645,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R31" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S31" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T31" t="n">
-        <v>1927.294548088493</v>
+        <v>1560.097191887061</v>
       </c>
       <c r="U31" t="n">
-        <v>1638.191681214136</v>
+        <v>1560.097191887061</v>
       </c>
       <c r="V31" t="n">
-        <v>1638.191681214136</v>
+        <v>1305.412703681174</v>
       </c>
       <c r="W31" t="n">
-        <v>1638.191681214136</v>
+        <v>1015.995533644213</v>
       </c>
       <c r="X31" t="n">
-        <v>1494.054724415577</v>
+        <v>788.0059827461959</v>
       </c>
       <c r="Y31" t="n">
-        <v>1273.262145272047</v>
+        <v>567.2134036026657</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1590.514489367197</v>
+        <v>1822.632236038044</v>
       </c>
       <c r="C32" t="n">
-        <v>1221.551972426786</v>
+        <v>1822.632236038044</v>
       </c>
       <c r="D32" t="n">
-        <v>863.2862738200351</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E32" t="n">
-        <v>477.498021221791</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F32" t="n">
-        <v>66.51211643218342</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G32" t="n">
-        <v>66.51211643218342</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H32" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I32" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L32" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M32" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N32" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O32" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P32" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q32" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R32" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S32" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T32" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U32" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V32" t="n">
-        <v>3093.488074938325</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W32" t="n">
-        <v>2740.71941966821</v>
+        <v>2972.837166339057</v>
       </c>
       <c r="X32" t="n">
-        <v>2367.25366140713</v>
+        <v>2599.371408077977</v>
       </c>
       <c r="Y32" t="n">
-        <v>1977.114329431319</v>
+        <v>2209.232076102166</v>
       </c>
     </row>
     <row r="33">
@@ -6768,16 +6770,16 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G33" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I33" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J33" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K33" t="n">
         <v>398.4535849031479</v>
@@ -6832,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1091.613680441807</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C34" t="n">
-        <v>922.6774975139006</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D34" t="n">
-        <v>772.5608581015648</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E34" t="n">
-        <v>624.6477645191717</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F34" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G34" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H34" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I34" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J34" t="n">
         <v>111.634748879119</v>
@@ -6883,25 +6885,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S34" t="n">
-        <v>1735.608663915319</v>
+        <v>1751.913851851648</v>
       </c>
       <c r="T34" t="n">
-        <v>1513.842048484845</v>
+        <v>1530.147236421175</v>
       </c>
       <c r="U34" t="n">
-        <v>1513.842048484845</v>
+        <v>1241.044369546818</v>
       </c>
       <c r="V34" t="n">
-        <v>1513.842048484845</v>
+        <v>986.3598813409312</v>
       </c>
       <c r="W34" t="n">
-        <v>1513.842048484845</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X34" t="n">
-        <v>1494.054724415577</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y34" t="n">
-        <v>1273.262145272047</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1491.569348694472</v>
+        <v>1127.748203495404</v>
       </c>
       <c r="C35" t="n">
-        <v>1122.60683175406</v>
+        <v>863.2862738200351</v>
       </c>
       <c r="D35" t="n">
-        <v>764.3411331473096</v>
+        <v>863.2862738200351</v>
       </c>
       <c r="E35" t="n">
-        <v>378.5528805490654</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F35" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G35" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H35" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I35" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M35" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O35" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T35" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U35" t="n">
-        <v>3325.60582160917</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V35" t="n">
-        <v>2994.542934265599</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W35" t="n">
-        <v>2641.774278995485</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="X35" t="n">
-        <v>2268.308520734405</v>
+        <v>1904.487375535338</v>
       </c>
       <c r="Y35" t="n">
-        <v>1878.169188758593</v>
+        <v>1514.348043559526</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1702.096133556937</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C36" t="n">
-        <v>1527.64310427581</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D36" t="n">
-        <v>1378.708694614559</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E36" t="n">
-        <v>1219.471239609103</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F36" t="n">
-        <v>1072.936681635988</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>936.5735814686066</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H36" t="n">
-        <v>846.0716871064741</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I36" t="n">
-        <v>827.064395508012</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J36" t="n">
-        <v>920.7416649986294</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K36" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L36" t="n">
-        <v>1525.704024291642</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M36" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N36" t="n">
-        <v>2446.503393068412</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O36" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P36" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q36" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R36" t="n">
-        <v>3325.461468201685</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S36" t="n">
-        <v>3196.023581695165</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T36" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U36" t="n">
-        <v>2775.312734507436</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V36" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W36" t="n">
-        <v>2285.923269547492</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X36" t="n">
-        <v>2078.071769341959</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y36" t="n">
-        <v>1870.311470577005</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="37">
@@ -7069,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1091.613680441807</v>
+        <v>533.4780323548192</v>
       </c>
       <c r="C37" t="n">
-        <v>922.6774975139006</v>
+        <v>364.5418494269123</v>
       </c>
       <c r="D37" t="n">
-        <v>772.5608581015648</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E37" t="n">
-        <v>624.6477645191717</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F37" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G37" t="n">
-        <v>310.0549803959802</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H37" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I37" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J37" t="n">
         <v>111.634748879119</v>
@@ -7117,28 +7119,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R37" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S37" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T37" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U37" t="n">
-        <v>1837.464090846021</v>
+        <v>1708.010285469454</v>
       </c>
       <c r="V37" t="n">
-        <v>1837.464090846021</v>
+        <v>1453.325797263567</v>
       </c>
       <c r="W37" t="n">
-        <v>1722.044275313594</v>
+        <v>1163.908627226606</v>
       </c>
       <c r="X37" t="n">
-        <v>1494.054724415577</v>
+        <v>935.9190763285891</v>
       </c>
       <c r="Y37" t="n">
-        <v>1273.262145272047</v>
+        <v>715.126497185059</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2345.167438673965</v>
+        <v>2175.400891308157</v>
       </c>
       <c r="C38" t="n">
-        <v>1976.204921733553</v>
+        <v>1806.438374367745</v>
       </c>
       <c r="D38" t="n">
-        <v>1617.939223126803</v>
+        <v>1448.172675760994</v>
       </c>
       <c r="E38" t="n">
         <v>1232.150970528558</v>
@@ -7172,25 +7174,25 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912079</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810543</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q38" t="n">
         <v>3266.588755052368</v>
@@ -7199,25 +7201,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S38" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T38" t="n">
-        <v>3009.337405520487</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U38" t="n">
-        <v>2755.806928794324</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V38" t="n">
-        <v>2424.744041450753</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W38" t="n">
-        <v>2424.744041450753</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="X38" t="n">
-        <v>2424.744041450753</v>
+        <v>2952.14006334809</v>
       </c>
       <c r="Y38" t="n">
-        <v>2424.744041450753</v>
+        <v>2562.000731372279</v>
       </c>
     </row>
     <row r="39">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1091.613680441807</v>
+        <v>2170.872131622242</v>
       </c>
       <c r="C40" t="n">
-        <v>922.6774975139006</v>
+        <v>2170.872131622242</v>
       </c>
       <c r="D40" t="n">
-        <v>772.5608581015648</v>
+        <v>2170.872131622242</v>
       </c>
       <c r="E40" t="n">
-        <v>624.6477645191717</v>
+        <v>2022.959038039849</v>
       </c>
       <c r="F40" t="n">
-        <v>477.7578170212613</v>
+        <v>1876.069090541939</v>
       </c>
       <c r="G40" t="n">
-        <v>310.0549803959802</v>
+        <v>1708.366253916658</v>
       </c>
       <c r="H40" t="n">
-        <v>163.837793613838</v>
+        <v>1562.149067134515</v>
       </c>
       <c r="I40" t="n">
-        <v>66.5121164321834</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="J40" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399796</v>
       </c>
       <c r="K40" t="n">
-        <v>315.6219318279954</v>
+        <v>1713.933205348673</v>
       </c>
       <c r="L40" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.493003797169</v>
       </c>
       <c r="M40" t="n">
-        <v>976.3387758760405</v>
+        <v>2374.650049396718</v>
       </c>
       <c r="N40" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102582</v>
       </c>
       <c r="O40" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022996</v>
       </c>
       <c r="P40" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456655</v>
       </c>
       <c r="Q40" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R40" t="n">
-        <v>1837.464090846021</v>
+        <v>3235.775364366698</v>
       </c>
       <c r="S40" t="n">
-        <v>1837.464090846021</v>
+        <v>3044.089480193524</v>
       </c>
       <c r="T40" t="n">
-        <v>1837.464090846021</v>
+        <v>2822.32286476305</v>
       </c>
       <c r="U40" t="n">
-        <v>1837.464090846021</v>
+        <v>2533.219997888694</v>
       </c>
       <c r="V40" t="n">
-        <v>1837.464090846021</v>
+        <v>2278.535509682807</v>
       </c>
       <c r="W40" t="n">
-        <v>1722.044275313594</v>
+        <v>2170.872131622242</v>
       </c>
       <c r="X40" t="n">
-        <v>1494.054724415577</v>
+        <v>2170.872131622242</v>
       </c>
       <c r="Y40" t="n">
-        <v>1273.262145272047</v>
+        <v>2170.872131622242</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2196.097994299122</v>
+        <v>1590.514489367197</v>
       </c>
       <c r="C41" t="n">
-        <v>1827.13547735871</v>
+        <v>1221.551972426786</v>
       </c>
       <c r="D41" t="n">
-        <v>1468.86977875196</v>
+        <v>863.2862738200351</v>
       </c>
       <c r="E41" t="n">
-        <v>1083.081526153716</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F41" t="n">
-        <v>672.0956213641082</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G41" t="n">
-        <v>257.0231712091046</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H41" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I41" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M41" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T41" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U41" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V41" t="n">
-        <v>3325.60582160917</v>
+        <v>3093.488074938325</v>
       </c>
       <c r="W41" t="n">
-        <v>2972.837166339056</v>
+        <v>2740.71941966821</v>
       </c>
       <c r="X41" t="n">
-        <v>2972.837166339056</v>
+        <v>2367.25366140713</v>
       </c>
       <c r="Y41" t="n">
-        <v>2582.697834363244</v>
+        <v>1977.114329431319</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I42" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228006</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M42" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N42" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O42" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q42" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R42" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S42" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T42" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V42" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W42" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X42" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="43">
@@ -7543,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1091.613680441807</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C43" t="n">
-        <v>922.6774975139006</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D43" t="n">
-        <v>772.5608581015648</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E43" t="n">
-        <v>624.6477645191717</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F43" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G43" t="n">
-        <v>310.0549803959802</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H43" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I43" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J43" t="n">
         <v>111.634748879119</v>
@@ -7606,13 +7608,13 @@
         <v>1326.59460854119</v>
       </c>
       <c r="W43" t="n">
-        <v>1326.59460854119</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X43" t="n">
-        <v>1326.59460854119</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y43" t="n">
-        <v>1105.80202939766</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1590.514489367197</v>
+        <v>2175.400891308157</v>
       </c>
       <c r="C44" t="n">
-        <v>1221.551972426786</v>
+        <v>1806.438374367745</v>
       </c>
       <c r="D44" t="n">
-        <v>863.2862738200351</v>
+        <v>1448.172675760994</v>
       </c>
       <c r="E44" t="n">
-        <v>477.498021221791</v>
+        <v>1062.38442316275</v>
       </c>
       <c r="F44" t="n">
-        <v>66.5121164321834</v>
+        <v>651.3985183731427</v>
       </c>
       <c r="G44" t="n">
-        <v>66.5121164321834</v>
+        <v>236.3260682181391</v>
       </c>
       <c r="H44" t="n">
         <v>66.5121164321834</v>
@@ -7646,25 +7648,25 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912079</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810543</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q44" t="n">
         <v>3266.588755052368</v>
@@ -7673,25 +7675,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S44" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T44" t="n">
-        <v>3009.337405520487</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U44" t="n">
-        <v>2755.806928794324</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V44" t="n">
-        <v>2740.71941966821</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W44" t="n">
-        <v>2740.71941966821</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="X44" t="n">
-        <v>2367.25366140713</v>
+        <v>2952.14006334809</v>
       </c>
       <c r="Y44" t="n">
-        <v>1977.114329431319</v>
+        <v>2562.000731372279</v>
       </c>
     </row>
     <row r="45">
@@ -7701,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I45" t="n">
         <v>66.5121164321834</v>
@@ -7758,7 +7760,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V45" t="n">
         <v>1779.608347199865</v>
@@ -7767,10 +7769,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>798.5065461617548</v>
+        <v>2379.377422555157</v>
       </c>
       <c r="C46" t="n">
-        <v>629.570363233848</v>
+        <v>2210.44123962725</v>
       </c>
       <c r="D46" t="n">
-        <v>479.4537238215122</v>
+        <v>2060.324600214914</v>
       </c>
       <c r="E46" t="n">
-        <v>331.5406302391191</v>
+        <v>1912.411506632521</v>
       </c>
       <c r="F46" t="n">
-        <v>331.5406302391191</v>
+        <v>1765.521559134611</v>
       </c>
       <c r="G46" t="n">
-        <v>163.837793613838</v>
+        <v>1597.81872250933</v>
       </c>
       <c r="H46" t="n">
-        <v>163.837793613838</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="I46" t="n">
-        <v>66.5121164321834</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="J46" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399796</v>
       </c>
       <c r="K46" t="n">
-        <v>315.6219318279954</v>
+        <v>1713.933205348673</v>
       </c>
       <c r="L46" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.493003797169</v>
       </c>
       <c r="M46" t="n">
-        <v>976.3387758760405</v>
+        <v>2374.650049396718</v>
       </c>
       <c r="N46" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102582</v>
       </c>
       <c r="O46" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022996</v>
       </c>
       <c r="P46" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456655</v>
       </c>
       <c r="Q46" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R46" t="n">
-        <v>1842.38964063719</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S46" t="n">
-        <v>1650.703756464016</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T46" t="n">
-        <v>1428.937141033542</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U46" t="n">
-        <v>1428.937141033542</v>
+        <v>3036.502954734814</v>
       </c>
       <c r="V46" t="n">
-        <v>1428.937141033542</v>
+        <v>2781.818466528927</v>
       </c>
       <c r="W46" t="n">
-        <v>1428.937141033542</v>
+        <v>2781.818466528927</v>
       </c>
       <c r="X46" t="n">
-        <v>1200.947590135525</v>
+        <v>2781.818466528927</v>
       </c>
       <c r="Y46" t="n">
-        <v>980.1550109919946</v>
+        <v>2561.025887385397</v>
       </c>
     </row>
   </sheetData>
@@ -8058,10 +8060,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>211.0329012241559</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>342.9044714621884</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8070,16 +8072,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>162.007309792133</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8295,13 +8297,13 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>211.0329012241562</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>342.9044714621887</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>162.0073097921339</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8310,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.9377812015499</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8526,7 +8528,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -8547,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>294.8344935184731</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -22550,10 +22552,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -22562,10 +22564,10 @@
         <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22598,19 +22600,19 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>207.3232602321303</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>161.4836137898368</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22644,7 +22646,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.06581410364015e-12</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22705,25 +22707,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,28 +22752,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>39.46770013664754</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>115.245920710272</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -22781,13 +22783,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -22796,10 +22798,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>203.3002158843212</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
         <v>65.70991267247049</v>
@@ -22841,16 +22843,16 @@
         <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>62.11538260151906</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22957,10 +22959,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22987,7 +22989,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -23005,10 +23007,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>103.0154349816509</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>115.245920710272</v>
       </c>
     </row>
     <row r="8">
@@ -23018,13 +23020,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -23033,13 +23035,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>62.1153826015194</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23069,25 +23071,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>168.0688818921504</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23191,13 +23193,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>21.59472895491474</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23224,13 +23226,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>89.30631637297373</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -23242,10 +23244,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -23255,16 +23257,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>8.211116127622745</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>197.2854761230488</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23273,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,7 +23311,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23321,7 +23323,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23413,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>16.14213605696645</v>
+        <v>48.03773402494286</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23473,16 +23475,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23495,25 +23497,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>279.2259094596455</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23549,7 +23551,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23561,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>32.37325944205537</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23662,7 +23664,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>83.32522828944178</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23698,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
@@ -23713,10 +23715,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>75.50340795433985</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23735,22 +23737,22 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>305.9193393173595</v>
+        <v>359.4438693456546</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23783,10 +23785,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23905,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
         <v>96.35242040983809</v>
@@ -23935,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>61.45558211047373</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23953,7 +23955,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>75.5938004186722</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23975,19 +23977,19 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>255.1805474109841</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24017,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>147.5787499310937</v>
       </c>
     </row>
     <row r="21">
@@ -24133,13 +24135,13 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>27.38138722868914</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
@@ -24184,10 +24186,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>147.8785773062513</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24206,25 +24208,25 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>93.55127865263609</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24263,7 +24265,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
-        <v>97.95568926599702</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24272,7 +24274,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24364,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>116.8782182611752</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24382,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,13 +24417,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24430,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>206.5217571557729</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24440,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24449,13 +24451,13 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>296.7574771839105</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
         <v>294.6077643873205</v>
@@ -24491,13 +24493,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>48.9845743093291</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24506,7 +24508,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24613,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>48.93987327667836</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,13 +24657,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>214.5414662356956</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24686,16 +24688,16 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>294.6077643873205</v>
+        <v>235.6797139074003</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292595</v>
@@ -24728,19 +24730,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>80.25393285255541</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24844,19 +24846,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,25 +24885,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>134.7247446382407</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>83.0140681584636</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24917,10 +24919,10 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>110.4600290656284</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24929,10 +24931,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292595</v>
@@ -24965,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
         <v>203.9179701396201</v>
@@ -24974,7 +24976,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
-        <v>207.143451054173</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -25075,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,22 +25125,22 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>16.14213605696594</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>206.1202045604617</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25154,16 +25156,16 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>103.455581392392</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>97.95568926599833</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>410.9217256534534</v>
@@ -25202,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25321,16 +25323,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
         <v>189.7690253314419</v>
@@ -25366,13 +25368,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>69.12041821276446</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>172.2573809594889</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25388,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>303.9530049144607</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25397,7 +25399,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>168.0688818921501</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25439,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25546,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25597,25 +25599,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>172.2573809594889</v>
+        <v>179.9362540566314</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25640,10 +25642,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>106.0018201581684</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -25676,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>203.9179701396201</v>
@@ -25685,13 +25687,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>207.1434510541725</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25783,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>165.7855147156431</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25798,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25846,10 +25848,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>270.8849248580842</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25877,10 +25879,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>126.4919521192243</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292595</v>
@@ -25913,16 +25915,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
-        <v>312.8156244352828</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -26032,16 +26034,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>13.08963568341619</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,25 +26070,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>4.876294293257175</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>844592.0519539407</v>
+        <v>767692.5454378471</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>844592.0519539409</v>
+        <v>844592.0519539408</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>844592.0519539408</v>
+        <v>844592.0519539409</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>844592.0519539409</v>
+        <v>844592.0519539408</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>844592.0519539409</v>
+        <v>844592.0519539407</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>844592.0519539409</v>
+        <v>844592.0519539407</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>844592.0519539409</v>
+        <v>844592.0519539408</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>844592.0519539408</v>
+        <v>844592.0519539409</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>844592.0519539407</v>
+        <v>844592.0519539408</v>
       </c>
     </row>
   </sheetData>
@@ -26314,46 +26316,46 @@
         <v>321270.2120190238</v>
       </c>
       <c r="C2" t="n">
-        <v>321270.2120190238</v>
+        <v>321270.212019024</v>
       </c>
       <c r="D2" t="n">
+        <v>321270.212019024</v>
+      </c>
+      <c r="E2" t="n">
+        <v>358046.9539194664</v>
+      </c>
+      <c r="F2" t="n">
         <v>358046.9539194666</v>
       </c>
-      <c r="E2" t="n">
+      <c r="G2" t="n">
         <v>358046.9539194666</v>
       </c>
-      <c r="F2" t="n">
-        <v>358046.9539194665</v>
-      </c>
-      <c r="G2" t="n">
-        <v>358046.9539194668</v>
-      </c>
       <c r="H2" t="n">
-        <v>358046.9539194666</v>
+        <v>358046.9539194667</v>
       </c>
       <c r="I2" t="n">
-        <v>358046.9539194668</v>
+        <v>358046.9539194664</v>
       </c>
       <c r="J2" t="n">
         <v>358046.9539194666</v>
       </c>
       <c r="K2" t="n">
-        <v>358046.9539194667</v>
+        <v>358046.9539194666</v>
       </c>
       <c r="L2" t="n">
-        <v>358046.9539194668</v>
+        <v>358046.9539194664</v>
       </c>
       <c r="M2" t="n">
-        <v>358046.9539194667</v>
+        <v>358046.9539194666</v>
       </c>
       <c r="N2" t="n">
         <v>358046.9539194666</v>
       </c>
       <c r="O2" t="n">
+        <v>358046.9539194668</v>
+      </c>
+      <c r="P2" t="n">
         <v>358046.9539194666</v>
-      </c>
-      <c r="P2" t="n">
-        <v>358046.9539194665</v>
       </c>
     </row>
     <row r="3">
@@ -26369,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403376</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>182072.9798171907</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099824</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819066</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>47552.26579341488</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>18583.86599059035</v>
+        <v>18583.86599059034</v>
       </c>
       <c r="C4" t="n">
         <v>18583.86599059036</v>
       </c>
       <c r="D4" t="n">
-        <v>9770.403102091492</v>
+        <v>18583.86599059035</v>
       </c>
       <c r="E4" t="n">
-        <v>9770.403102091492</v>
+        <v>9770.403102091475</v>
       </c>
       <c r="F4" t="n">
-        <v>9770.403102091477</v>
+        <v>9770.403102091475</v>
       </c>
       <c r="G4" t="n">
-        <v>9770.403102091477</v>
+        <v>9770.403102091475</v>
       </c>
       <c r="H4" t="n">
-        <v>9770.403102091477</v>
+        <v>9770.403102091475</v>
       </c>
       <c r="I4" t="n">
-        <v>9770.403102091477</v>
+        <v>9770.403102091475</v>
       </c>
       <c r="J4" t="n">
-        <v>9770.403102091477</v>
+        <v>9770.403102091475</v>
       </c>
       <c r="K4" t="n">
-        <v>9770.403102091477</v>
+        <v>9770.403102091475</v>
       </c>
       <c r="L4" t="n">
-        <v>9770.403102091477</v>
+        <v>9770.403102091475</v>
       </c>
       <c r="M4" t="n">
-        <v>9770.403102091477</v>
+        <v>9770.403102091475</v>
       </c>
       <c r="N4" t="n">
-        <v>9770.403102091477</v>
+        <v>9770.403102091475</v>
       </c>
       <c r="O4" t="n">
-        <v>9770.403102091448</v>
+        <v>9770.403102091475</v>
       </c>
       <c r="P4" t="n">
-        <v>9770.403102091477</v>
+        <v>9770.403102091475</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984469</v>
       </c>
       <c r="C5" t="n">
         <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>74306.3405613933</v>
@@ -26482,7 +26484,7 @@
         <v>74306.3405613933</v>
       </c>
       <c r="G5" t="n">
-        <v>74306.34056139331</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="H5" t="n">
         <v>74306.3405613933</v>
@@ -26494,19 +26496,19 @@
         <v>74306.3405613933</v>
       </c>
       <c r="K5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="L5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="M5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="N5" t="n">
         <v>74306.34056139328</v>
       </c>
       <c r="O5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="P5" t="n">
         <v>74306.34056139328</v>
@@ -26522,46 +26524,46 @@
         <v>-905003.2099873306</v>
       </c>
       <c r="C6" t="n">
-        <v>209748.5735885888</v>
+        <v>209748.5735885889</v>
       </c>
       <c r="D6" t="n">
-        <v>47715.46981564423</v>
+        <v>209748.5735885889</v>
       </c>
       <c r="E6" t="n">
+        <v>91897.2304387909</v>
+      </c>
+      <c r="F6" t="n">
+        <v>273970.2102559819</v>
+      </c>
+      <c r="G6" t="n">
         <v>273970.2102559818</v>
       </c>
-      <c r="F6" t="n">
+      <c r="H6" t="n">
+        <v>273970.2102559819</v>
+      </c>
+      <c r="I6" t="n">
         <v>273970.2102559817</v>
       </c>
-      <c r="G6" t="n">
-        <v>273970.210255982</v>
-      </c>
-      <c r="H6" t="n">
-        <v>273970.210255982</v>
-      </c>
-      <c r="I6" t="n">
-        <v>273970.210255982</v>
-      </c>
       <c r="J6" t="n">
-        <v>106365.0324459993</v>
+        <v>106365.0324459994</v>
       </c>
       <c r="K6" t="n">
         <v>273970.2102559819</v>
       </c>
       <c r="L6" t="n">
-        <v>225676.2402477914</v>
+        <v>273970.2102559817</v>
       </c>
       <c r="M6" t="n">
+        <v>226417.9444625669</v>
+      </c>
+      <c r="N6" t="n">
+        <v>273970.2102559818</v>
+      </c>
+      <c r="O6" t="n">
+        <v>273970.210255982</v>
+      </c>
+      <c r="P6" t="n">
         <v>273970.2102559819</v>
-      </c>
-      <c r="N6" t="n">
-        <v>273970.2102559819</v>
-      </c>
-      <c r="O6" t="n">
-        <v>273970.2102559819</v>
-      </c>
-      <c r="P6" t="n">
-        <v>273970.2102559818</v>
       </c>
     </row>
   </sheetData>
@@ -26738,10 +26740,10 @@
         <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26750,7 +26752,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="H3" t="n">
         <v>1089.776700593298</v>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="C4" t="n">
         <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="G4" t="n">
         <v>831.4014554022928</v>
@@ -26811,22 +26813,22 @@
         <v>831.4014554022928</v>
       </c>
       <c r="J4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="K4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="L4" t="n">
         <v>831.4014554022929</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>831.4014554022929</v>
-      </c>
-      <c r="L4" t="n">
-        <v>831.4014554022928</v>
-      </c>
-      <c r="M4" t="n">
-        <v>831.4014554022925</v>
       </c>
       <c r="N4" t="n">
         <v>831.4014554022925</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="P4" t="n">
         <v>831.4014554022925</v>
@@ -26963,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757589</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>155.7118084757592</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022537</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000384</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022536</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022537</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31279,43 +31281,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31358,10 +31360,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31370,7 +31372,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
         <v>509.0653662040588</v>
@@ -31379,25 +31381,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31455,10 +31457,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31470,13 +31472,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31835,40 +31837,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31923,16 +31925,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31941,16 +31943,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
         <v>44.86703772844668</v>
@@ -32233,40 +32235,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837919</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32385,43 +32387,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
         <v>0.1071911508780295</v>
@@ -32552,7 +32554,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L21" t="n">
         <v>508.9565619138796</v>
@@ -33032,7 +33034,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
         <v>609.6478166837925</v>
@@ -33269,7 +33271,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N30" t="n">
         <v>609.6478166837925</v>
@@ -33740,7 +33742,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M36" t="n">
         <v>593.9283018233475</v>
@@ -33755,7 +33757,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.215670698749</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -33892,7 +33894,7 @@
         <v>168.89895979748</v>
       </c>
       <c r="J38" t="n">
-        <v>371.8329054953979</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
         <v>557.281137600381</v>
@@ -33983,7 +33985,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O39" t="n">
         <v>557.708647897025</v>
@@ -33992,7 +33994,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34208,7 +34210,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
@@ -34366,7 +34368,7 @@
         <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953979</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
         <v>557.281137600381</v>
@@ -34457,7 +34459,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O45" t="n">
         <v>557.708647897025</v>
@@ -34778,10 +34780,10 @@
         <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
-        <v>397.6203974676407</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="M3" t="n">
         <v>366.9313322820404</v>
@@ -34790,16 +34792,16 @@
         <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>497.4319917882559</v>
       </c>
       <c r="P3" t="n">
-        <v>568.1422977634694</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
         <v>116.4807223308545</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,16 +35014,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091742</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K6" t="n">
-        <v>397.620397467641</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820405</v>
+        <v>528.9386420741744</v>
       </c>
       <c r="N6" t="n">
         <v>391.1970995928739</v>
@@ -35030,13 +35032,13 @@
         <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308546</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
         <v>278.0112915831069</v>
@@ -35103,7 +35105,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
         <v>262.6644876295069</v>
@@ -35112,7 +35114,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>544.5140226420053</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.5784166130662</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789363</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35580,13 +35582,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004586</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
         <v>159.2338966127272</v>
@@ -36039,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36200,7 +36202,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L21" t="n">
         <v>370.4021821340054</v>
@@ -36355,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
         <v>337.1912865554005</v>
@@ -36680,7 +36682,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
         <v>478.3061046004592</v>
@@ -36917,7 +36919,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N30" t="n">
         <v>478.3061046004592</v>
@@ -37388,7 +37390,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M36" t="n">
         <v>451.7942679013292</v>
@@ -37403,7 +37405,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127274</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687116</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
         <v>337.1912865554005</v>
@@ -37631,7 +37633,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O39" t="n">
         <v>415.1124034525806</v>
@@ -37640,7 +37642,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37792,7 +37794,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882182</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
         <v>398.7619862193719</v>
@@ -37856,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597693</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
@@ -38014,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687116</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
         <v>337.1912865554005</v>
@@ -38105,7 +38107,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O45" t="n">
         <v>415.1124034525806</v>
